--- a/Calculs/report.xlsx
+++ b/Calculs/report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chouc\Desktop\ece\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E4A94F-AB01-4C61-9CE0-F92A43D2E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AEEEB3-E90B-4EBF-A171-88FF25A87DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{49034B58-80D9-4530-BB4D-C3929B075B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49034B58-80D9-4530-BB4D-C3929B075B90}"/>
   </bookViews>
   <sheets>
     <sheet name="ordi1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="177">
   <si>
     <t>Batch size</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>0.6723999977111816</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>f</t>
@@ -14512,13 +14509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D72E8E7-415D-4B47-8597-C0B9948B00B1}">
-  <dimension ref="E3:T111"/>
+  <dimension ref="E3:T104"/>
   <sheetViews>
-    <sheetView topLeftCell="J18" zoomScale="87" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103:K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
@@ -14578,11 +14579,11 @@
         <v>4992</v>
       </c>
       <c r="O4" s="2">
-        <f>AVERAGE(H4,H15,H26,H36,H56,H66,H76,H86,H96,H106)</f>
+        <f>AVERAGE(H4,H15,H26,H36,H49,H59,H69,H79,H89,H99)</f>
         <v>0.53185001049999991</v>
       </c>
       <c r="P4" s="2">
-        <f>AVERAGE(I4,I15,I26,I36,I56,I66,I76,I86,I96,I106)</f>
+        <f>AVERAGE(I4,I15,I26,I36,I49,I59,I69,I79,I89,I99)</f>
         <v>1.9519999999999999E-2</v>
       </c>
     </row>
@@ -14615,11 +14616,11 @@
         <v>12480</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" ref="O5:O9" si="0">AVERAGE(H5,H16,H27,H37,H57,H67,H77,H87,H97,H107)</f>
+        <f>AVERAGE(H5,H16,H27,H37,H50,H60,H70,H80,H90,H100)</f>
         <v>0.60260000800000002</v>
       </c>
       <c r="P5" s="2">
-        <f>AVERAGE(I5,I16,I27,I37,I57,I67,I77,I87,I97,I107)</f>
+        <f>AVERAGE(I5,I16,I27,I37,I50,I60,I70,I80,I90,I100)</f>
         <v>4.8529999999999997E-2</v>
       </c>
     </row>
@@ -14649,11 +14650,11 @@
         <v>24960</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H6,H17,H28,H38,H51,H61,H71,H81,H91,H101)</f>
         <v>0.63650000099999993</v>
       </c>
       <c r="P6" s="2">
-        <f>AVERAGE(I6,I17,I28,I38,I58,I68,I78,I88,I98,I108)</f>
+        <f>AVERAGE(I6,I17,I28,I38,I51,I61,I71,I81,I91,I101)</f>
         <v>9.6419999999999992E-2</v>
       </c>
     </row>
@@ -14683,11 +14684,11 @@
         <v>37440</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H7,H18,H29,H39,H52,H62,H72,H82,H92,H102)</f>
         <v>0.66885000499999991</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" ref="P7:P9" si="1">AVERAGE(I7,I18,I29,I39,I59,I69,I79,I89,I99,I109)</f>
+        <f>AVERAGE(I7,I18,I29,I39,I52,I62,I72,I82,I92,I102)</f>
         <v>0.14439999999999997</v>
       </c>
     </row>
@@ -14717,11 +14718,11 @@
         <v>44992</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H8,H19,H30,H40,H53,H63,H73,H83,H93,H103)</f>
         <v>0.674999982</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I8,I19,I30,I40,I53,I63,I73,I83,I93,I103)</f>
         <v>0.1716</v>
       </c>
     </row>
@@ -14751,11 +14752,11 @@
         <v>49984</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H9,H20,H31,H41,H54,H64,H74,H84,H94,H104)</f>
         <v>0.67640000599999994</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I9,I20,I31,I41,I54,I64,I74,I84,I94,I104)</f>
         <v>0.19019999999999998</v>
       </c>
     </row>
@@ -14880,7 +14881,7 @@
         <v>8</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O16" s="11">
         <v>1.95E-2</v>
@@ -15322,218 +15323,215 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E45" s="2" t="s">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E48" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E46" s="2">
-        <v>64</v>
-      </c>
-      <c r="F46" s="2">
-        <v>910</v>
-      </c>
-      <c r="G46" s="2">
-        <v>4992</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E47" s="2">
-        <v>64</v>
-      </c>
-      <c r="F47" s="2">
-        <v>903</v>
-      </c>
-      <c r="G47" s="2">
-        <v>12480</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E48" s="2">
-        <v>64</v>
-      </c>
-      <c r="F48" s="2">
-        <v>902</v>
-      </c>
-      <c r="G48" s="2">
-        <v>24960</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2">
         <v>64</v>
       </c>
       <c r="F49" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="G49" s="2">
-        <v>37440</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+        <v>4992</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="J49" s="2">
+        <f>1543.50393390655/60/60</f>
+        <v>0.42875109275181944</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E50" s="2">
         <v>64</v>
       </c>
       <c r="F50" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G50" s="2">
-        <v>44992</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+        <v>12480</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="3">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="J50" s="2">
+        <f>3778.84897351264/60/60</f>
+        <v>1.0496802704201778</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2">
         <v>64</v>
       </c>
       <c r="F51" s="2">
+        <v>902</v>
+      </c>
+      <c r="G51" s="2">
+        <v>24960</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="3">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <f>7484.00659775733/60/60</f>
+        <v>2.0788907215992585</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E52" s="2">
+        <v>64</v>
+      </c>
+      <c r="F52" s="2">
+        <v>903</v>
+      </c>
+      <c r="G52" s="2">
+        <v>37440</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J52" s="2">
+        <f>11169.1338155269/60/60</f>
+        <v>3.1025371709796947</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E53" s="2">
+        <v>64</v>
+      </c>
+      <c r="F53" s="2">
         <v>901</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G53" s="2">
+        <v>44992</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="J53" s="2">
+        <f>13332.6322035789/60/60</f>
+        <v>3.7035089454385832</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E54" s="2">
+        <v>64</v>
+      </c>
+      <c r="F54" s="2">
+        <v>901</v>
+      </c>
+      <c r="G54" s="2">
         <v>49984</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E56" s="2">
-        <v>64</v>
-      </c>
-      <c r="F56" s="2">
-        <v>910</v>
-      </c>
-      <c r="G56" s="2">
-        <v>4992</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="J56" s="2">
-        <f>1543.50393390655/60/60</f>
-        <v>0.42875109275181944</v>
-      </c>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E57" s="2">
-        <v>64</v>
-      </c>
-      <c r="F57" s="2">
-        <v>903</v>
-      </c>
-      <c r="G57" s="2">
-        <v>12480</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="J57" s="2">
-        <f>3778.84897351264/60/60</f>
-        <v>1.0496802704201778</v>
-      </c>
-      <c r="K57" s="2"/>
-      <c r="L57">
-        <v>4</v>
+      <c r="H54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="J54" s="2">
+        <f>14707.8979794979/60/60</f>
+        <v>4.0855272165271943</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E58" s="2">
-        <v>64</v>
-      </c>
-      <c r="F58" s="2">
-        <v>902</v>
-      </c>
-      <c r="G58" s="2">
-        <v>24960</v>
+      <c r="E58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="3">
-        <v>9.5899999999999999E-2</v>
-      </c>
-      <c r="J58" s="2">
-        <f>7484.00659775733/60/60</f>
-        <v>2.0788907215992585</v>
-      </c>
-      <c r="K58" s="2"/>
-      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="5:12" x14ac:dyDescent="0.3">
@@ -15541,26 +15539,26 @@
         <v>64</v>
       </c>
       <c r="F59" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="G59" s="2">
-        <v>37440</v>
+        <v>4992</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I59" s="3">
-        <v>0.14499999999999999</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="J59" s="2">
-        <f>11169.1338155269/60/60</f>
-        <v>3.1025371709796947</v>
+        <f>1522.25257921218/60/60</f>
+        <v>0.42284793867005005</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="5:12" x14ac:dyDescent="0.3">
@@ -15568,24 +15566,26 @@
         <v>64</v>
       </c>
       <c r="F60" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G60" s="2">
-        <v>44992</v>
+        <v>12480</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I60" s="3">
-        <v>0.17100000000000001</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="J60" s="2">
-        <f>13332.6322035789/60/60</f>
-        <v>3.7035089454385832</v>
-      </c>
-      <c r="K60" s="2"/>
+        <f>3755.10495853424/60/60</f>
+        <v>1.0430847107039556</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L60">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="5:12" x14ac:dyDescent="0.3">
@@ -15593,127 +15593,132 @@
         <v>64</v>
       </c>
       <c r="F61" s="2">
+        <v>902</v>
+      </c>
+      <c r="G61" s="2">
+        <v>24960</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J61" s="2">
+        <f>7503.13900017738/60/60</f>
+        <v>2.0842052778270501</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E62" s="2">
+        <v>64</v>
+      </c>
+      <c r="F62" s="2">
+        <v>903</v>
+      </c>
+      <c r="G62" s="2">
+        <v>37440</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="J62" s="2">
+        <f>11128.8651804924/60/60</f>
+        <v>3.0913514390256664</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E63" s="2">
+        <v>64</v>
+      </c>
+      <c r="F63" s="2">
         <v>901</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G63" s="2">
+        <v>44992</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J63" s="2">
+        <f>13301.1076467037/60/60</f>
+        <v>3.6947521240843613</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E64" s="2">
+        <v>64</v>
+      </c>
+      <c r="F64" s="2">
+        <v>901</v>
+      </c>
+      <c r="G64" s="2">
         <v>49984</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0.188</v>
-      </c>
-      <c r="J61" s="2">
-        <f>14707.8979794979/60/60</f>
-        <v>4.0855272165271943</v>
-      </c>
-      <c r="K61" s="2"/>
-      <c r="L61">
+      <c r="H64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E66" s="2">
-        <v>64</v>
-      </c>
-      <c r="F66" s="2">
-        <v>910</v>
-      </c>
-      <c r="G66" s="2">
-        <v>4992</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="J66" s="2">
-        <f>1522.25257921218/60/60</f>
-        <v>0.42284793867005005</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E67" s="2">
-        <v>64</v>
-      </c>
-      <c r="F67" s="2">
-        <v>903</v>
-      </c>
-      <c r="G67" s="2">
-        <v>12480</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I67" s="3">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="J67" s="2">
-        <f>3755.10495853424/60/60</f>
-        <v>1.0430847107039556</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67">
-        <v>10</v>
+      <c r="L64">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E68" s="2">
-        <v>64</v>
-      </c>
-      <c r="F68" s="2">
-        <v>902</v>
-      </c>
-      <c r="G68" s="2">
-        <v>24960</v>
+      <c r="E68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="J68" s="2">
-        <f>7503.13900017738/60/60</f>
-        <v>2.0842052778270501</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="5:12" x14ac:dyDescent="0.3">
@@ -15721,24 +15726,25 @@
         <v>64</v>
       </c>
       <c r="F69" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="G69" s="2">
-        <v>37440</v>
+        <v>4992</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I69" s="3">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="J69" s="2">
-        <f>11128.8651804924/60/60</f>
-        <v>3.0913514390256664</v>
-      </c>
-      <c r="K69" s="2"/>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L69">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="5:12" x14ac:dyDescent="0.3">
@@ -15746,26 +15752,25 @@
         <v>64</v>
       </c>
       <c r="F70" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G70" s="2">
-        <v>44992</v>
+        <v>12480</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I70" s="3">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="J70" s="2">
-        <f>13301.1076467037/60/60</f>
-        <v>3.6947521240843613</v>
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="5:12" x14ac:dyDescent="0.3">
@@ -15773,123 +15778,129 @@
         <v>64</v>
       </c>
       <c r="F71" s="2">
+        <v>902</v>
+      </c>
+      <c r="G71" s="2">
+        <v>24960</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E72" s="2">
+        <v>64</v>
+      </c>
+      <c r="F72" s="2">
+        <v>903</v>
+      </c>
+      <c r="G72" s="2">
+        <v>37440</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E73" s="2">
+        <v>64</v>
+      </c>
+      <c r="F73" s="2">
         <v>901</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G73" s="2">
+        <v>44992</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E74" s="2">
+        <v>64</v>
+      </c>
+      <c r="F74" s="2">
+        <v>901</v>
+      </c>
+      <c r="G74" s="2">
         <v>49984</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K71" s="2"/>
-      <c r="L71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E76" s="2">
-        <v>64</v>
-      </c>
-      <c r="F76" s="2">
-        <v>910</v>
-      </c>
-      <c r="G76" s="2">
-        <v>4992</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K76" s="2"/>
-      <c r="L76">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E77" s="2">
-        <v>64</v>
-      </c>
-      <c r="F77" s="2">
-        <v>903</v>
-      </c>
-      <c r="G77" s="2">
-        <v>12480</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I77" s="3">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K77" s="2"/>
-      <c r="L77">
-        <v>16</v>
+      <c r="H74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L74">
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E78" s="2">
-        <v>64</v>
-      </c>
-      <c r="F78" s="2">
-        <v>902</v>
-      </c>
-      <c r="G78" s="2">
-        <v>24960</v>
+      <c r="E78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>3</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L78">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="L78" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="5:12" x14ac:dyDescent="0.3">
@@ -15897,23 +15908,25 @@
         <v>64</v>
       </c>
       <c r="F79" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="G79" s="2">
-        <v>37440</v>
+        <v>4992</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I79" s="3">
-        <v>0.14499999999999999</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K79" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L79">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="5:12" x14ac:dyDescent="0.3">
@@ -15921,23 +15934,25 @@
         <v>64</v>
       </c>
       <c r="F80" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G80" s="2">
-        <v>44992</v>
+        <v>12480</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I80" s="3">
-        <v>0.17199999999999999</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K80" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L80">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="5:12" x14ac:dyDescent="0.3">
@@ -15945,123 +15960,129 @@
         <v>64</v>
       </c>
       <c r="F81" s="2">
+        <v>902</v>
+      </c>
+      <c r="G81" s="2">
+        <v>24960</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I81" s="3">
+        <v>9.69E-2</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E82" s="2">
+        <v>64</v>
+      </c>
+      <c r="F82" s="2">
+        <v>903</v>
+      </c>
+      <c r="G82" s="2">
+        <v>37440</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E83" s="2">
+        <v>64</v>
+      </c>
+      <c r="F83" s="2">
         <v>901</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G83" s="2">
+        <v>44992</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E84" s="2">
+        <v>64</v>
+      </c>
+      <c r="F84" s="2">
+        <v>901</v>
+      </c>
+      <c r="G84" s="2">
         <v>49984</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0.188</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E86" s="2">
-        <v>64</v>
-      </c>
-      <c r="F86" s="2">
-        <v>910</v>
-      </c>
-      <c r="G86" s="2">
-        <v>4992</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I86" s="3">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K86" s="2"/>
-      <c r="L86">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E87" s="2">
-        <v>64</v>
-      </c>
-      <c r="F87" s="2">
-        <v>903</v>
-      </c>
-      <c r="G87" s="2">
-        <v>12480</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I87" s="3">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K87" s="2"/>
-      <c r="L87">
-        <v>22</v>
+      <c r="H84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L84">
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E88" s="2">
-        <v>64</v>
-      </c>
-      <c r="F88" s="2">
-        <v>902</v>
-      </c>
-      <c r="G88" s="2">
-        <v>24960</v>
+      <c r="E88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I88" s="3">
-        <v>9.69E-2</v>
+        <v>3</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K88" s="2"/>
-      <c r="L88">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="5:12" x14ac:dyDescent="0.3">
@@ -16069,23 +16090,25 @@
         <v>64</v>
       </c>
       <c r="F89" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="G89" s="2">
-        <v>37440</v>
+        <v>4992</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I89" s="3">
-        <v>0.14599999999999999</v>
+        <v>1.95E-2</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K89" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L89">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="5:12" x14ac:dyDescent="0.3">
@@ -16093,23 +16116,25 @@
         <v>64</v>
       </c>
       <c r="F90" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G90" s="2">
-        <v>44992</v>
+        <v>12480</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I90" s="3">
-        <v>0.17499999999999999</v>
+        <v>4.87E-2</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K90" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L90">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="5:12" x14ac:dyDescent="0.3">
@@ -16117,121 +16142,129 @@
         <v>64</v>
       </c>
       <c r="F91" s="2">
+        <v>902</v>
+      </c>
+      <c r="G91" s="2">
+        <v>24960</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="3">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E92" s="2">
+        <v>64</v>
+      </c>
+      <c r="F92" s="2">
+        <v>903</v>
+      </c>
+      <c r="G92" s="2">
+        <v>37440</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E93" s="2">
+        <v>64</v>
+      </c>
+      <c r="F93" s="2">
         <v>901</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G93" s="2">
+        <v>44992</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L93">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E94" s="2">
+        <v>64</v>
+      </c>
+      <c r="F94" s="2">
+        <v>901</v>
+      </c>
+      <c r="G94" s="2">
         <v>49984</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0.193</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K91" s="2"/>
-      <c r="L91">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L95" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E96" s="2">
-        <v>64</v>
-      </c>
-      <c r="F96" s="2">
-        <v>910</v>
-      </c>
-      <c r="G96" s="2">
-        <v>4992</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I96" s="3">
-        <v>1.95E-2</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K96" s="2"/>
-      <c r="L96">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E97" s="2">
-        <v>64</v>
-      </c>
-      <c r="F97" s="2">
-        <v>903</v>
-      </c>
-      <c r="G97" s="2">
-        <v>12480</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I97" s="3">
-        <v>4.87E-2</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K97" s="2"/>
-      <c r="L97">
-        <v>28</v>
+      <c r="H94" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94">
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E98" s="2">
-        <v>64</v>
-      </c>
-      <c r="F98" s="2">
-        <v>902</v>
-      </c>
-      <c r="G98" s="2">
-        <v>24960</v>
+      <c r="E98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I98" s="3">
-        <v>9.6199999999999994E-2</v>
+        <v>3</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K98" s="2"/>
-      <c r="L98">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="5:12" x14ac:dyDescent="0.3">
@@ -16239,23 +16272,25 @@
         <v>64</v>
       </c>
       <c r="F99" s="2">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="G99" s="2">
-        <v>37440</v>
+        <v>4992</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I99" s="3">
-        <v>0.14199999999999999</v>
+        <v>1.95E-2</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K99" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L99">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="5:12" x14ac:dyDescent="0.3">
@@ -16263,23 +16298,25 @@
         <v>64</v>
       </c>
       <c r="F100" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G100" s="2">
-        <v>44992</v>
+        <v>12480</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I100" s="3">
-        <v>0.16900000000000001</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K100" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="L100">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="5:12" x14ac:dyDescent="0.3">
@@ -16287,194 +16324,102 @@
         <v>64</v>
       </c>
       <c r="F101" s="2">
+        <v>902</v>
+      </c>
+      <c r="G101" s="2">
+        <v>24960</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="3">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E102" s="2">
+        <v>64</v>
+      </c>
+      <c r="F102" s="2">
+        <v>903</v>
+      </c>
+      <c r="G102" s="2">
+        <v>37440</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E103" s="2">
+        <v>64</v>
+      </c>
+      <c r="F103" s="2">
         <v>901</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G103" s="2">
+        <v>44992</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E104" s="2">
+        <v>64</v>
+      </c>
+      <c r="F104" s="2">
+        <v>901</v>
+      </c>
+      <c r="G104" s="2">
         <v>49984</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0.189</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K101" s="2"/>
-      <c r="L101">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L105" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E106" s="2">
-        <v>64</v>
-      </c>
-      <c r="F106" s="2">
-        <v>910</v>
-      </c>
-      <c r="G106" s="2">
-        <v>4992</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I106" s="3">
-        <v>1.95E-2</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K106" s="2"/>
-      <c r="L106">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E107" s="2">
-        <v>64</v>
-      </c>
-      <c r="F107" s="2">
-        <v>903</v>
-      </c>
-      <c r="G107" s="2">
-        <v>12480</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I107" s="3">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K107" s="2"/>
-      <c r="L107">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E108" s="2">
-        <v>64</v>
-      </c>
-      <c r="F108" s="2">
-        <v>902</v>
-      </c>
-      <c r="G108" s="2">
-        <v>24960</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I108" s="3">
-        <v>9.6600000000000005E-2</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K108" s="2"/>
-      <c r="L108">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E109" s="2">
-        <v>64</v>
-      </c>
-      <c r="F109" s="2">
-        <v>903</v>
-      </c>
-      <c r="G109" s="2">
-        <v>37440</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I109" s="3">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L109">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E110" s="2">
-        <v>64</v>
-      </c>
-      <c r="F110" s="2">
-        <v>901</v>
-      </c>
-      <c r="G110" s="2">
-        <v>44992</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I110" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="J110" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K110" s="2"/>
-      <c r="L110">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E111" s="2">
-        <v>64</v>
-      </c>
-      <c r="F111" s="2">
-        <v>901</v>
-      </c>
-      <c r="G111" s="2">
-        <v>49984</v>
-      </c>
-      <c r="H111" s="2" t="s">
+      <c r="I104" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I111" s="3">
-        <v>0.188</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K111" s="2"/>
-      <c r="L111">
+      <c r="K104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L104">
         <v>38</v>
       </c>
     </row>
@@ -16489,7 +16434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1858D7AA-1806-47DF-92B1-9C443F2FBB63}">
   <dimension ref="D3:S89"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="F31" sqref="F31:F33"/>
     </sheetView>
   </sheetViews>
@@ -16636,7 +16581,7 @@
         <v>24960</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="3">
         <v>8.3799999999999999E-2</v>
@@ -16659,7 +16604,7 @@
         <v>37440</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="3">
         <v>0.125</v>
@@ -16682,7 +16627,7 @@
         <v>44992</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3">
         <v>0.14799999999999999</v>
@@ -16760,7 +16705,7 @@
         <v>0.274532685</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
@@ -16843,7 +16788,7 @@
         <v>44992</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3">
         <v>0.14399999999999999</v>
@@ -17332,7 +17277,7 @@
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>8</v>
@@ -17355,7 +17300,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>8</v>
@@ -17401,7 +17346,7 @@
         <v>1.66E-2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>8</v>
@@ -17424,7 +17369,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>8</v>
@@ -17447,7 +17392,7 @@
         <v>8.14E-2</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>8</v>
@@ -17470,7 +17415,7 @@
         <v>0.122</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>8</v>
@@ -17493,7 +17438,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>8</v>
@@ -17516,7 +17461,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>8</v>
@@ -17562,7 +17507,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>7</v>
@@ -17585,7 +17530,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>8</v>
@@ -17608,7 +17553,7 @@
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>8</v>
@@ -17631,7 +17576,7 @@
         <v>0.124</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>8</v>
@@ -17654,7 +17599,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>8</v>
@@ -17677,7 +17622,7 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>8</v>
@@ -17723,7 +17668,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>8</v>
@@ -17746,7 +17691,7 @@
         <v>4.02E-2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>8</v>
@@ -17769,7 +17714,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>8</v>
@@ -17792,7 +17737,7 @@
         <v>0.111</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>8</v>
@@ -17815,7 +17760,7 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>8</v>
@@ -17838,7 +17783,7 @@
         <v>0.161</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>8</v>
@@ -17884,7 +17829,7 @@
         <v>1.66E-2</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>7</v>
@@ -17907,7 +17852,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>8</v>
@@ -17930,7 +17875,7 @@
         <v>8.1799999999999998E-2</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>8</v>
@@ -17953,7 +17898,7 @@
         <v>0.122</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>8</v>
@@ -17976,7 +17921,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>8</v>
@@ -17999,7 +17944,7 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>8</v>
@@ -18039,7 +17984,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>8</v>
@@ -18059,7 +18004,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>8</v>
@@ -18079,7 +18024,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>8</v>
@@ -18099,7 +18044,7 @@
         <v>0.123</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>8</v>
@@ -18119,7 +18064,7 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>8</v>
@@ -18139,7 +18084,7 @@
         <v>0.158</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>8</v>
@@ -18179,7 +18124,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>7</v>
@@ -18199,7 +18144,7 @@
         <v>3.8199999999999998E-2</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>8</v>
@@ -18219,7 +18164,7 @@
         <v>7.4800000000000005E-2</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>8</v>
@@ -18239,7 +18184,7 @@
         <v>0.111</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>7</v>
@@ -18259,7 +18204,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>8</v>
@@ -18279,7 +18224,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>8</v>
@@ -18295,7 +18240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC019958-0603-4A36-8B28-428D932EBD67}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="D24" zoomScale="30" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -18319,49 +18264,49 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="5">
         <v>969</v>
@@ -18402,7 +18347,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="5">
         <v>89</v>
@@ -18441,7 +18386,7 @@
     </row>
     <row r="4" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="5">
         <f>SUM(D2:D3)</f>
@@ -18524,51 +18469,51 @@
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N8" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" t="s">
         <v>158</v>
       </c>
-      <c r="O8" t="s">
-        <v>160</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="T8" t="s">
+        <v>157</v>
+      </c>
+      <c r="U8" t="s">
         <v>159</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>158</v>
-      </c>
-      <c r="U8" t="s">
-        <v>160</v>
-      </c>
-      <c r="V8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="K9" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N9" s="16">
         <v>0.14399999999999999</v>
@@ -18580,7 +18525,7 @@
         <v>0.19</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T9" s="5">
         <v>0.121</v>
@@ -18594,7 +18539,7 @@
     </row>
     <row r="10" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="5">
         <v>0.108</v>
@@ -18612,7 +18557,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N10" s="18">
         <f>N9*D10</f>
@@ -18627,7 +18572,7 @@
         <v>2.052E-2</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T10" s="5">
         <f>T9*D10</f>
@@ -18644,7 +18589,7 @@
     </row>
     <row r="11" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M11" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N11" s="18">
         <f>N9*$E$10</f>
@@ -18659,7 +18604,7 @@
         <v>1.14E-2</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T11" s="5">
         <f>T9*$E$10</f>
@@ -18676,7 +18621,7 @@
     </row>
     <row r="12" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M12" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N12" s="18">
         <f>N9*$F$10</f>
@@ -18691,7 +18636,7 @@
         <v>7.2199999999999999E-3</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T12" s="5">
         <f>T9*$F$10</f>
@@ -18708,7 +18653,7 @@
     </row>
     <row r="13" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M13" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N13" s="18">
         <f>N9*$G$10</f>
@@ -18723,7 +18668,7 @@
         <v>3.1920000000000004E-2</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T13" s="5">
         <f>T9*$G$10</f>
@@ -18740,7 +18685,7 @@
     </row>
     <row r="14" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M14" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N14" s="18">
         <f>N9*$H$10</f>
@@ -18755,7 +18700,7 @@
         <v>6.8399999999999997E-3</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T14" s="5">
         <f>T9*$H$10</f>
@@ -18803,51 +18748,51 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="T16" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="5">
-        <f>AVERAGE(ordi1!H4,ordi1!H15,ordi1!H26,ordi1!H36,ordi1!H56,ordi1!H66,ordi1!H76,ordi1!H86,ordi1!H96,ordi1!H106)</f>
+        <f>AVERAGE(ordi1!H4,ordi1!H15,ordi1!H26,ordi1!H36,ordi1!H49,ordi1!H59,ordi1!H69,ordi1!H79,ordi1!H89,ordi1!H99)</f>
         <v>0.53185001049999991</v>
       </c>
       <c r="E17" s="5">
-        <f>AVERAGE(ordi1!H5,ordi1!H16,ordi1!H27,ordi1!H37,ordi1!H57,ordi1!H67,ordi1!H77,ordi1!H87,ordi1!H97,ordi1!H107)</f>
+        <f>AVERAGE(ordi1!H5,ordi1!H16,ordi1!H27,ordi1!H37,ordi1!H50,ordi1!H60,ordi1!H70,ordi1!H80,ordi1!H90,ordi1!H100)</f>
         <v>0.60260000800000002</v>
       </c>
       <c r="F17" s="5">
-        <f>AVERAGE(ordi1!H6,ordi1!H17,ordi1!H28,ordi1!H38,ordi1!H58,ordi1!H68,ordi1!H78,ordi1!H88,ordi1!H98,ordi1!H108)</f>
+        <f>AVERAGE(ordi1!H6,ordi1!H17,ordi1!H28,ordi1!H38,ordi1!H51,ordi1!H61,ordi1!H71,ordi1!H81,ordi1!H91,ordi1!H101)</f>
         <v>0.63650000099999993</v>
       </c>
       <c r="G17" s="5">
-        <f>AVERAGE(ordi1!H7,ordi1!H18,ordi1!H29,ordi1!H39,ordi1!H59,ordi1!H69,ordi1!H79,ordi1!H89,ordi1!H99,ordi1!H109)</f>
+        <f>AVERAGE(ordi1!H7,ordi1!H18,ordi1!H29,ordi1!H39,ordi1!H52,ordi1!H62,ordi1!H72,ordi1!H82,ordi1!H92,ordi1!H102)</f>
         <v>0.66885000499999991</v>
       </c>
       <c r="H17" s="5">
-        <f>AVERAGE(ordi1!H8,ordi1!H19,ordi1!H30,ordi1!H40,ordi1!H60,ordi1!H70,ordi1!H80,ordi1!H90,ordi1!H100,ordi1!H110)</f>
+        <f>AVERAGE(ordi1!H8,ordi1!H19,ordi1!H30,ordi1!H40,ordi1!H53,ordi1!H63,ordi1!H73,ordi1!H83,ordi1!H93,ordi1!H103)</f>
         <v>0.674999982</v>
       </c>
       <c r="I17" s="5">
-        <f>AVERAGE(ordi1!H9,ordi1!H20,ordi1!H31,ordi1!H41,ordi1!H61,ordi1!H71,ordi1!H81,ordi1!H91,ordi1!H101,ordi1!H111)</f>
+        <f>AVERAGE(ordi1!H9,ordi1!H20,ordi1!H31,ordi1!H41,ordi1!H54,ordi1!H64,ordi1!H74,ordi1!H84,ordi1!H94,ordi1!H104)</f>
         <v>0.67640000599999994</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N17" s="17">
         <f>P10-N10</f>
@@ -18862,7 +18807,7 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T17" s="5">
         <v>4.2120000000000005E-3</v>
@@ -18881,31 +18826,31 @@
         <v>4</v>
       </c>
       <c r="D18" s="5">
-        <f>AVERAGE(ordi1!I4,ordi1!I15,ordi1!I26,ordi1!I36,ordi1!I56,ordi1!I66,ordi1!I76,ordi1!I86,ordi1!I96,ordi1!I106)</f>
+        <f>AVERAGE(ordi1!I4,ordi1!I15,ordi1!I26,ordi1!I36,ordi1!I49,ordi1!I59,ordi1!I69,ordi1!I79,ordi1!I89,ordi1!I99)</f>
         <v>1.9519999999999999E-2</v>
       </c>
       <c r="E18" s="5">
-        <f>AVERAGE(ordi1!I5,ordi1!I16,ordi1!I27,ordi1!I37,ordi1!I57,ordi1!I67,ordi1!I77,ordi1!I87,ordi1!I97,ordi1!I107)</f>
+        <f>AVERAGE(ordi1!I5,ordi1!I16,ordi1!I27,ordi1!I37,ordi1!I50,ordi1!I60,ordi1!I70,ordi1!I80,ordi1!I90,ordi1!I100)</f>
         <v>4.8529999999999997E-2</v>
       </c>
       <c r="F18" s="5">
-        <f>AVERAGE(ordi1!I6,ordi1!I17,ordi1!I28,ordi1!I38,ordi1!I58,ordi1!I68,ordi1!I78,ordi1!I88,ordi1!I98,ordi1!I108)</f>
+        <f>AVERAGE(ordi1!I6,ordi1!I17,ordi1!I28,ordi1!I38,ordi1!I51,ordi1!I61,ordi1!I71,ordi1!I81,ordi1!I91,ordi1!I101)</f>
         <v>9.6419999999999992E-2</v>
       </c>
       <c r="G18" s="5">
-        <f>AVERAGE(ordi1!I7,ordi1!I18,ordi1!I29,ordi1!I39,ordi1!I59,ordi1!I69,ordi1!I79,ordi1!I89,ordi1!I99,ordi1!I109)</f>
+        <f>AVERAGE(ordi1!I7,ordi1!I18,ordi1!I29,ordi1!I39,ordi1!I52,ordi1!I62,ordi1!I72,ordi1!I82,ordi1!I92,ordi1!I102)</f>
         <v>0.14439999999999997</v>
       </c>
       <c r="H18" s="5">
-        <f>AVERAGE(ordi1!I8,ordi1!I19,ordi1!I30,ordi1!I40,ordi1!I60,ordi1!I70,ordi1!I80,ordi1!I90,ordi1!I100,ordi1!I110)</f>
+        <f>AVERAGE(ordi1!I8,ordi1!I19,ordi1!I30,ordi1!I40,ordi1!I53,ordi1!I63,ordi1!I73,ordi1!I83,ordi1!I93,ordi1!I103)</f>
         <v>0.1716</v>
       </c>
       <c r="I18" s="5">
-        <f>AVERAGE(ordi1!I9,ordi1!I20,ordi1!I31,ordi1!I41,ordi1!I61,ordi1!I71,ordi1!I81,ordi1!I91,ordi1!I101,ordi1!I111)</f>
+        <f>AVERAGE(ordi1!I9,ordi1!I20,ordi1!I31,ordi1!I41,ordi1!I54,ordi1!I64,ordi1!I74,ordi1!I84,ordi1!I94,ordi1!I104)</f>
         <v>0.19019999999999998</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" ref="N18:N21" si="7">P11-N11</f>
@@ -18920,7 +18865,7 @@
         <v>0.66666666666666752</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T18" s="5">
         <v>2.3400000000000001E-3</v>
@@ -18936,7 +18881,7 @@
     </row>
     <row r="19" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M19" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N19" s="17">
         <f t="shared" si="7"/>
@@ -18951,7 +18896,7 @@
         <v>5.5555555555555587E-2</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T19" s="5">
         <v>1.4820000000000007E-3</v>
@@ -18967,7 +18912,7 @@
     </row>
     <row r="20" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M20" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="7"/>
@@ -18982,7 +18927,7 @@
         <v>3.6666666666666692</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T20" s="5">
         <v>6.5519999999999988E-3</v>
@@ -18998,7 +18943,7 @@
     </row>
     <row r="21" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M21" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N21" s="17">
         <f t="shared" si="7"/>
@@ -19010,7 +18955,7 @@
       </c>
       <c r="P21" s="27"/>
       <c r="S21" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T21" s="5">
         <v>1.4039999999999999E-3</v>
@@ -19052,11 +18997,11 @@
     </row>
     <row r="24" spans="1:22" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="15">
         <v>4992</v>
@@ -19077,7 +19022,7 @@
         <v>49984</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="16">
@@ -19090,7 +19035,7 @@
         <v>0.19</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T24" s="5">
         <v>37440</v>
@@ -19104,7 +19049,7 @@
     </row>
     <row r="25" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="26">
         <f>AVERAGE(ordi2!G4,ordi2!G12,ordi2!G20,ordi2!G28,ordi2!G36,ordi2!G44,ordi2!G52,ordi2!G68,ordi2!G60,ordi2!G76,ordi2!G84)</f>
@@ -19131,7 +19076,7 @@
         <v>0.67859090455091386</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N25" s="14">
         <f>N24*$D$4</f>
@@ -19146,7 +19091,7 @@
         <v>201.02</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T25" s="5">
         <v>128.018</v>
@@ -19160,7 +19105,7 @@
     </row>
     <row r="26" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D26" s="15">
         <f>AVERAGE(ordi2!H4,ordi2!H12,ordi2!H20,ordi2!H28,ordi2!H36,ordi2!H44,ordi2!H52,ordi2!H68,ordi2!H60,ordi2!H76,ordi2!H84)</f>
@@ -19187,7 +19132,7 @@
         <v>0.16027272727272726</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N26" s="5">
         <f>N24*$F$4</f>
@@ -19202,7 +19147,7 @@
         <v>79.42</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T26" s="5">
         <v>50.577999999999996</v>
@@ -19217,7 +19162,7 @@
     <row r="27" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="15"/>
       <c r="M27" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N27" s="5">
         <f>N24*$H$5</f>
@@ -19232,7 +19177,7 @@
         <v>2.8214999999999999</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T27" s="5">
         <v>1.7968499999999998</v>
@@ -19247,7 +19192,7 @@
     <row r="28" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1"/>
       <c r="M28" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N28" s="5">
         <f>N24*$G$4</f>
@@ -19262,7 +19207,7 @@
         <v>1.1400000000000001</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T28" s="5">
         <v>0.72599999999999998</v>
@@ -19284,7 +19229,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="M29" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N29" s="5">
         <f>N24*$L$5</f>
@@ -19299,7 +19244,7 @@
         <v>6.4219999999999997</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T29" s="29">
         <v>4.0897999999999994</v>
@@ -19313,7 +19258,7 @@
     </row>
     <row r="30" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="15">
         <v>4992</v>
@@ -19357,13 +19302,13 @@
         <v>0.67859090455091386</v>
       </c>
       <c r="T31" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="U31" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="U31" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="V31" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -19389,7 +19334,7 @@
         <v>0.16027272727272726</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N32" s="17">
         <f>P25-N25</f>
@@ -19408,7 +19353,7 @@
         <v>30.301775147929014</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T32" s="5">
         <v>41.262</v>
@@ -19422,7 +19367,7 @@
     </row>
     <row r="33" spans="13:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M33" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N33" s="17">
         <f>P26-N26</f>
@@ -19441,7 +19386,7 @@
         <v>11.366863905325449</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T33" s="5">
         <v>16.302</v>
@@ -19455,7 +19400,7 @@
     </row>
     <row r="34" spans="13:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M34" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N34" s="17">
         <f>P27-N27</f>
@@ -19474,7 +19419,7 @@
         <v>-0.56065088757396453</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T34" s="5">
         <v>0.57915000000000005</v>
@@ -19488,7 +19433,7 @@
     </row>
     <row r="35" spans="13:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M35" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N35" s="17">
         <f>P28-N28</f>
@@ -19507,7 +19452,7 @@
         <v>-0.82248520710059159</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T35" s="5">
         <v>0.23399999999999999</v>
@@ -19521,7 +19466,7 @@
     </row>
     <row r="36" spans="13:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M36" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N36" s="17">
         <f t="shared" ref="N36" si="18">P29-N29</f>
@@ -19540,7 +19485,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T36" s="5">
         <v>1.3182</v>
@@ -19561,21 +19506,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100224D5102346AD64398DD383458ECCBE9" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="d69a909646f6593d9d5686f5b2e628d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="09d562cd-ef31-47bd-8907-3751e9f94f1b" xmlns:ns4="d5b902c9-5fae-44d3-b86d-c7dc1be6810a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4152873f111a063981d69262024dc3f" ns3:_="" ns4:_="">
     <xsd:import namespace="09d562cd-ef31-47bd-8907-3751e9f94f1b"/>
@@ -19772,32 +19702,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8121B8D0-C52E-4760-BBFB-2E2A9F873A08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d5b902c9-5fae-44d3-b86d-c7dc1be6810a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09d562cd-ef31-47bd-8907-3751e9f94f1b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5EDFC8-4F39-4CCE-887A-DDCCF9D23C58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F98F0B6C-2405-42DF-A509-3F3A709B0B41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19814,4 +19734,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5EDFC8-4F39-4CCE-887A-DDCCF9D23C58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8121B8D0-C52E-4760-BBFB-2E2A9F873A08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d5b902c9-5fae-44d3-b86d-c7dc1be6810a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09d562cd-ef31-47bd-8907-3751e9f94f1b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>